--- a/toi/documentation/armors.xlsx
+++ b/toi/documentation/armors.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="capital" sheetId="1" r:id="rId1"/>
-    <sheet name="artillery" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
+    <sheet name="screen" sheetId="4" r:id="rId2"/>
+    <sheet name="artillery" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
   <extLst>
@@ -203,8 +204,142 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Garion132</author>
+  </authors>
+  <commentList>
+    <comment ref="C16" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Garion132:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+5% better than compound</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C22" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Garion132:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+double forged
+13 = 15.5 nickel-steel or 20% better
+harvey I is 5% weaker</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C30" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Garion132:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+15%
+10.2 = 12 harvey
+11.9 = 13 harvey</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C35" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Garion132:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+better in other respects than armor from krupp I</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C43" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Garion132:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+10% than "early use"</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="126">
   <si>
     <t>name</t>
   </si>
@@ -671,7 +806,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -690,6 +825,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1744,11 +1882,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="57561856"/>
-        <c:axId val="57563392"/>
+        <c:axId val="89150592"/>
+        <c:axId val="89152128"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="57561856"/>
+        <c:axId val="89150592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1758,7 +1896,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="57563392"/>
+        <c:crossAx val="89152128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1766,7 +1904,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="57563392"/>
+        <c:axId val="89152128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1782,7 +1920,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="57561856"/>
+        <c:crossAx val="89150592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3077,11 +3215,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="72090368"/>
-        <c:axId val="72091904"/>
+        <c:axId val="100762752"/>
+        <c:axId val="100764288"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="72090368"/>
+        <c:axId val="100762752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3091,7 +3229,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="72091904"/>
+        <c:crossAx val="100764288"/>
         <c:crossesAt val="-0.5"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3099,7 +3237,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="72091904"/>
+        <c:axId val="100764288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3114,7 +3252,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="72090368"/>
+        <c:crossAx val="100762752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3503,12 +3641,12 @@
         <c:gapWidth val="55"/>
         <c:gapDepth val="55"/>
         <c:shape val="box"/>
-        <c:axId val="72134656"/>
-        <c:axId val="72136192"/>
-        <c:axId val="72119168"/>
+        <c:axId val="85152128"/>
+        <c:axId val="85153664"/>
+        <c:axId val="100787072"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="72134656"/>
+        <c:axId val="85152128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3517,7 +3655,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="72136192"/>
+        <c:crossAx val="85153664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3525,7 +3663,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="72136192"/>
+        <c:axId val="85153664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3536,12 +3674,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="72134656"/>
+        <c:crossAx val="85152128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="72119168"/>
+        <c:axId val="100787072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3550,7 +3688,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="72136192"/>
+        <c:crossAx val="85153664"/>
         <c:crosses val="autoZero"/>
       </c:serAx>
     </c:plotArea>
@@ -3674,11 +3812,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="72153728"/>
-        <c:axId val="77078912"/>
+        <c:axId val="85175296"/>
+        <c:axId val="85185280"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="72153728"/>
+        <c:axId val="85175296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3688,7 +3826,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77078912"/>
+        <c:crossAx val="85185280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3696,7 +3834,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="77078912"/>
+        <c:axId val="85185280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3707,7 +3845,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="72153728"/>
+        <c:crossAx val="85175296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3829,11 +3967,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="77115776"/>
-        <c:axId val="77117312"/>
+        <c:axId val="88906368"/>
+        <c:axId val="89100672"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="77115776"/>
+        <c:axId val="88906368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3843,7 +3981,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77117312"/>
+        <c:crossAx val="89100672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3851,7 +3989,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="77117312"/>
+        <c:axId val="89100672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3862,7 +4000,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77115776"/>
+        <c:crossAx val="88906368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4146,11 +4284,11 @@
             <a:ln w="57150"/>
           </c:spPr>
         </c:hiLowLines>
-        <c:axId val="77434880"/>
-        <c:axId val="77436800"/>
+        <c:axId val="99391744"/>
+        <c:axId val="99398016"/>
       </c:stockChart>
       <c:catAx>
-        <c:axId val="77434880"/>
+        <c:axId val="99391744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4172,12 +4310,13 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77436800"/>
+        <c:crossAx val="99398016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4185,7 +4324,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="77436800"/>
+        <c:axId val="99398016"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -4209,13 +4348,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77434880"/>
+        <c:crossAx val="99391744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4677,7 +4817,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4687,9 +4827,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O42" sqref="O42"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4957,10 +5097,10 @@
       <c r="A10">
         <v>1</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="8">
         <v>1850</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="8" t="s">
         <v>58</v>
       </c>
       <c r="D10" t="s">
@@ -4993,8 +5133,8 @@
       <c r="A11">
         <v>1.5</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
       <c r="D11" t="s">
         <v>17</v>
       </c>
@@ -7149,6 +7289,267 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T55"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O1" t="s">
+        <v>8</v>
+      </c>
+      <c r="P1" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>54</v>
+      </c>
+      <c r="R1" t="s">
+        <v>53</v>
+      </c>
+      <c r="S1" t="s">
+        <v>56</v>
+      </c>
+      <c r="T1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C2" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C3" s="8"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C4" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C5" s="6"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C6" s="6"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C7" s="6"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C8" s="6"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C9" s="6"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C10" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C11" s="6"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C12" s="6"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C13" s="6"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C14" s="6"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C15" s="6"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C17" s="6"/>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C18" s="6"/>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C19" s="6"/>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C20" s="6"/>
+    </row>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C21" s="6"/>
+    </row>
+    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C23" s="6"/>
+    </row>
+    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C24" s="6"/>
+    </row>
+    <row r="25" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C25" s="6"/>
+    </row>
+    <row r="26" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C26" s="6"/>
+    </row>
+    <row r="27" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C27" s="6"/>
+    </row>
+    <row r="28" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C28" s="6"/>
+    </row>
+    <row r="29" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C29" s="6"/>
+    </row>
+    <row r="30" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C31" s="6"/>
+    </row>
+    <row r="32" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C32" s="6"/>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C33" s="6"/>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C34" s="6"/>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C36" s="6"/>
+    </row>
+    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C37" s="6"/>
+    </row>
+    <row r="38" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C38" s="6"/>
+    </row>
+    <row r="39" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C39" s="6"/>
+    </row>
+    <row r="40" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C40" s="6"/>
+    </row>
+    <row r="41" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C41" s="6"/>
+    </row>
+    <row r="42" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C42" s="6"/>
+    </row>
+    <row r="43" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C43" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="44" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C44" s="6"/>
+    </row>
+    <row r="45" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C45" s="6"/>
+    </row>
+    <row r="46" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C46" s="6"/>
+    </row>
+    <row r="47" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C47" s="6"/>
+    </row>
+    <row r="48" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C48" s="6"/>
+    </row>
+    <row r="49" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C49" s="6"/>
+    </row>
+    <row r="50" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C50" s="6"/>
+    </row>
+    <row r="51" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C51" s="6"/>
+    </row>
+    <row r="52" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C52" s="6"/>
+    </row>
+    <row r="53" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C53" s="6"/>
+    </row>
+    <row r="54" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C54" s="6"/>
+    </row>
+    <row r="55" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C55" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C2:C3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S11"/>
   <sheetViews>
@@ -7569,12 +7970,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
